--- a/PM Apr-2021 UPDATED.xlsx
+++ b/PM Apr-2021 UPDATED.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jawad Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8490" tabRatio="558"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4140" tabRatio="558"/>
   </bookViews>
   <sheets>
     <sheet name="APRIL'21" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="238">
   <si>
     <t>Qty</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>hghg</t>
   </si>
 </sst>
 </file>
@@ -1570,40 +1573,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1612,31 +1615,25 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,35 +1654,41 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2694,14 +2697,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF238"/>
+  <dimension ref="A1:CF248"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="BT5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="BT245" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J12" sqref="J12"/>
       <selection pane="topRight" activeCell="J12" sqref="J12"/>
       <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
-      <selection pane="bottomRight" activeCell="CF7" sqref="CF7"/>
+      <selection pane="bottomRight" activeCell="BV248" sqref="BV248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,25 +2783,25 @@
     <col min="78" max="79" width="9.140625" style="2"/>
     <col min="80" max="80" width="8.7109375" style="2" customWidth="1"/>
     <col min="81" max="81" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.85546875" style="117" customWidth="1"/>
-    <col min="83" max="83" width="13.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.85546875" style="87" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" style="87" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="15.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="85" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:84" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:84" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2811,184 +2814,184 @@
       <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="103" t="s">
+      <c r="H3" s="102"/>
+      <c r="I3" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="103">
         <v>43922</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="96" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="117" t="s">
         <v>170</v>
       </c>
       <c r="M3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="93">
+      <c r="N3" s="103">
         <v>43923</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="103" t="s">
+      <c r="O3" s="102"/>
+      <c r="P3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="Q3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="93">
+      <c r="R3" s="103">
         <v>43926</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="103" t="s">
+      <c r="S3" s="102"/>
+      <c r="T3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="U3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="V3" s="93">
+      <c r="V3" s="103">
         <v>43927</v>
       </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="103" t="s">
+      <c r="W3" s="102"/>
+      <c r="X3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="Y3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" s="93">
+      <c r="Z3" s="103">
         <v>43928</v>
       </c>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="103" t="s">
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="AC3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="93">
+      <c r="AD3" s="103">
         <v>43929</v>
       </c>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="103" t="s">
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="AG3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AH3" s="93">
+      <c r="AH3" s="103">
         <v>43933</v>
       </c>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="103" t="s">
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="AK3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AL3" s="93">
+      <c r="AL3" s="103">
         <v>43934</v>
       </c>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="103" t="s">
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="AO3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AP3" s="93">
+      <c r="AP3" s="103">
         <v>43935</v>
       </c>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="103" t="s">
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="AS3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AT3" s="108">
+      <c r="AT3" s="100">
         <v>43936</v>
       </c>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="103" t="s">
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="AW3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AX3" s="93">
+      <c r="AX3" s="103">
         <v>43940</v>
       </c>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="103" t="s">
+      <c r="AY3" s="102"/>
+      <c r="AZ3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="BA3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="BB3" s="93">
+      <c r="BB3" s="103">
         <v>43941</v>
       </c>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="103" t="s">
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="BE3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="BF3" s="93">
+      <c r="BF3" s="103">
         <v>43942</v>
       </c>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="103" t="s">
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="BI3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="BJ3" s="93">
+      <c r="BJ3" s="103">
         <v>43943</v>
       </c>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="103" t="s">
+      <c r="BK3" s="102"/>
+      <c r="BL3" s="96" t="s">
         <v>170</v>
       </c>
       <c r="BM3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="BN3" s="108">
+      <c r="BN3" s="100">
         <v>43947</v>
       </c>
-      <c r="BO3" s="95"/>
-      <c r="BP3" s="95"/>
-      <c r="BQ3" s="94"/>
-      <c r="BR3" s="108">
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="102"/>
+      <c r="BR3" s="100">
         <v>43948</v>
       </c>
-      <c r="BS3" s="95"/>
-      <c r="BT3" s="95"/>
-      <c r="BU3" s="94"/>
-      <c r="BV3" s="108">
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="102"/>
+      <c r="BV3" s="100">
         <v>43949</v>
       </c>
-      <c r="BW3" s="95"/>
-      <c r="BX3" s="95"/>
-      <c r="BY3" s="94"/>
-      <c r="BZ3" s="108">
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="101"/>
+      <c r="BY3" s="102"/>
+      <c r="BZ3" s="100">
         <v>43950</v>
       </c>
-      <c r="CA3" s="95"/>
-      <c r="CB3" s="95"/>
-      <c r="CC3" s="94"/>
-      <c r="CD3" s="118" t="s">
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="102"/>
+      <c r="CD3" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="CE3" s="118" t="s">
+      <c r="CE3" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="CF3" s="115" t="s">
+      <c r="CF3" s="94" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2996,11 +2999,11 @@
       <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="12" t="s">
         <v>0</v>
       </c>
@@ -3013,14 +3016,14 @@
       <c r="H4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="104"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="97"/>
+      <c r="L4" s="118"/>
       <c r="M4" s="99"/>
       <c r="N4" s="4" t="s">
         <v>3</v>
@@ -3028,7 +3031,7 @@
       <c r="O4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="104"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="99"/>
       <c r="R4" s="4" t="s">
         <v>3</v>
@@ -3036,7 +3039,7 @@
       <c r="S4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="104"/>
+      <c r="T4" s="97"/>
       <c r="U4" s="99"/>
       <c r="V4" s="4" t="s">
         <v>3</v>
@@ -3044,7 +3047,7 @@
       <c r="W4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="104"/>
+      <c r="X4" s="97"/>
       <c r="Y4" s="99"/>
       <c r="Z4" s="4" t="s">
         <v>3</v>
@@ -3052,7 +3055,7 @@
       <c r="AA4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="104"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="99"/>
       <c r="AD4" s="4" t="s">
         <v>3</v>
@@ -3060,7 +3063,7 @@
       <c r="AE4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="104"/>
+      <c r="AF4" s="97"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="4" t="s">
         <v>3</v>
@@ -3068,7 +3071,7 @@
       <c r="AI4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="104"/>
+      <c r="AJ4" s="97"/>
       <c r="AK4" s="99"/>
       <c r="AL4" s="4" t="s">
         <v>3</v>
@@ -3076,7 +3079,7 @@
       <c r="AM4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AN4" s="104"/>
+      <c r="AN4" s="97"/>
       <c r="AO4" s="99"/>
       <c r="AP4" s="4" t="s">
         <v>3</v>
@@ -3084,7 +3087,7 @@
       <c r="AQ4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AR4" s="104"/>
+      <c r="AR4" s="97"/>
       <c r="AS4" s="99"/>
       <c r="AT4" s="4" t="s">
         <v>3</v>
@@ -3092,7 +3095,7 @@
       <c r="AU4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AV4" s="104"/>
+      <c r="AV4" s="97"/>
       <c r="AW4" s="99"/>
       <c r="AX4" s="4" t="s">
         <v>3</v>
@@ -3100,7 +3103,7 @@
       <c r="AY4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AZ4" s="104"/>
+      <c r="AZ4" s="97"/>
       <c r="BA4" s="99"/>
       <c r="BB4" s="4" t="s">
         <v>3</v>
@@ -3108,7 +3111,7 @@
       <c r="BC4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BD4" s="104"/>
+      <c r="BD4" s="97"/>
       <c r="BE4" s="99"/>
       <c r="BF4" s="4" t="s">
         <v>3</v>
@@ -3116,7 +3119,7 @@
       <c r="BG4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="104"/>
+      <c r="BH4" s="97"/>
       <c r="BI4" s="99"/>
       <c r="BJ4" s="4" t="s">
         <v>3</v>
@@ -3124,7 +3127,7 @@
       <c r="BK4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BL4" s="104"/>
+      <c r="BL4" s="97"/>
       <c r="BM4" s="99"/>
       <c r="BN4" s="4" t="s">
         <v>3</v>
@@ -3174,19 +3177,19 @@
       <c r="CC4" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="123"/>
+      <c r="CD4" s="93"/>
+      <c r="CE4" s="93"/>
+      <c r="CF4" s="95"/>
     </row>
     <row r="5" spans="1:84" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="111"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="30"/>
       <c r="F5" s="24"/>
       <c r="G5" s="26">
@@ -3267,17 +3270,17 @@
       <c r="CA5" s="9"/>
       <c r="CB5" s="9"/>
       <c r="CC5" s="9"/>
-      <c r="CD5" s="120"/>
-      <c r="CE5" s="120"/>
+      <c r="CD5" s="88"/>
+      <c r="CE5" s="88"/>
       <c r="CF5" s="24"/>
     </row>
     <row r="6" spans="1:84" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="69"/>
       <c r="F6" s="55"/>
       <c r="G6" s="26">
@@ -3358,8 +3361,8 @@
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
-      <c r="CD6" s="116"/>
-      <c r="CE6" s="116"/>
+      <c r="CD6" s="86"/>
+      <c r="CE6" s="86"/>
       <c r="CF6" s="24"/>
     </row>
     <row r="7" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
@@ -3466,10 +3469,10 @@
       <c r="CA7" s="9"/>
       <c r="CB7" s="9"/>
       <c r="CC7" s="9"/>
-      <c r="CD7" s="116">
+      <c r="CD7" s="86">
         <v>2.4</v>
       </c>
-      <c r="CE7" s="116">
+      <c r="CE7" s="86">
         <v>2.4</v>
       </c>
       <c r="CF7" s="24">
@@ -3581,10 +3584,10 @@
       <c r="CA8" s="6"/>
       <c r="CB8" s="15"/>
       <c r="CC8" s="15"/>
-      <c r="CD8" s="116">
+      <c r="CD8" s="86">
         <v>2.7</v>
       </c>
-      <c r="CE8" s="116">
+      <c r="CE8" s="86">
         <v>2.7</v>
       </c>
       <c r="CF8" s="24">
@@ -3696,10 +3699,10 @@
       <c r="CA9" s="6"/>
       <c r="CB9" s="16"/>
       <c r="CC9" s="16"/>
-      <c r="CD9" s="116">
+      <c r="CD9" s="86">
         <v>2.6</v>
       </c>
-      <c r="CE9" s="116">
+      <c r="CE9" s="86">
         <v>3.3</v>
       </c>
       <c r="CF9" s="24">
@@ -3817,10 +3820,10 @@
       <c r="CA10" s="16"/>
       <c r="CB10" s="6"/>
       <c r="CC10" s="6"/>
-      <c r="CD10" s="116">
+      <c r="CD10" s="86">
         <v>2.82</v>
       </c>
-      <c r="CE10" s="116">
+      <c r="CE10" s="86">
         <v>3</v>
       </c>
       <c r="CF10" s="24">
@@ -3935,10 +3938,10 @@
       <c r="CA11" s="6"/>
       <c r="CB11" s="6"/>
       <c r="CC11" s="6"/>
-      <c r="CD11" s="116">
+      <c r="CD11" s="86">
         <v>2.4500000000000002</v>
       </c>
-      <c r="CE11" s="116">
+      <c r="CE11" s="86">
         <v>2.7</v>
       </c>
       <c r="CF11" s="24">
@@ -4055,10 +4058,10 @@
       <c r="CA12" s="6"/>
       <c r="CB12" s="6"/>
       <c r="CC12" s="6"/>
-      <c r="CD12" s="116">
+      <c r="CD12" s="86">
         <v>2.4500000000000002</v>
       </c>
-      <c r="CE12" s="116">
+      <c r="CE12" s="86">
         <v>2.7</v>
       </c>
       <c r="CF12" s="24">
@@ -4174,10 +4177,10 @@
       <c r="CA13" s="6"/>
       <c r="CB13" s="6"/>
       <c r="CC13" s="6"/>
-      <c r="CD13" s="116">
+      <c r="CD13" s="86">
         <v>3.25</v>
       </c>
-      <c r="CE13" s="116">
+      <c r="CE13" s="86">
         <v>3.45</v>
       </c>
       <c r="CF13" s="24">
@@ -4293,10 +4296,10 @@
       <c r="CA14" s="6"/>
       <c r="CB14" s="6"/>
       <c r="CC14" s="6"/>
-      <c r="CD14" s="116">
+      <c r="CD14" s="86">
         <v>3.25</v>
       </c>
-      <c r="CE14" s="116">
+      <c r="CE14" s="86">
         <v>3.45</v>
       </c>
       <c r="CF14" s="24">
@@ -4356,7 +4359,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="124"/>
+      <c r="AD15" s="91"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
@@ -4408,10 +4411,10 @@
       <c r="CA15" s="6"/>
       <c r="CB15" s="6"/>
       <c r="CC15" s="6"/>
-      <c r="CD15" s="116">
+      <c r="CD15" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE15" s="116">
+      <c r="CE15" s="86">
         <v>2.9</v>
       </c>
       <c r="CF15" s="24">
@@ -4523,10 +4526,10 @@
       <c r="CA16" s="6"/>
       <c r="CB16" s="6"/>
       <c r="CC16" s="6"/>
-      <c r="CD16" s="116">
+      <c r="CD16" s="86">
         <v>2.8</v>
       </c>
-      <c r="CE16" s="116">
+      <c r="CE16" s="86">
         <v>2.9</v>
       </c>
       <c r="CF16" s="24">
@@ -4634,8 +4637,8 @@
       <c r="CA17" s="6"/>
       <c r="CB17" s="6"/>
       <c r="CC17" s="6"/>
-      <c r="CD17" s="116"/>
-      <c r="CE17" s="116">
+      <c r="CD17" s="86"/>
+      <c r="CE17" s="86">
         <v>2.25</v>
       </c>
       <c r="CF17" s="24">
@@ -4747,10 +4750,10 @@
       <c r="CA18" s="6"/>
       <c r="CB18" s="6"/>
       <c r="CC18" s="6"/>
-      <c r="CD18" s="116">
+      <c r="CD18" s="86">
         <v>1.85</v>
       </c>
-      <c r="CE18" s="116">
+      <c r="CE18" s="86">
         <v>2.1</v>
       </c>
       <c r="CF18" s="24">
@@ -4862,10 +4865,10 @@
       <c r="CA19" s="6"/>
       <c r="CB19" s="6"/>
       <c r="CC19" s="6"/>
-      <c r="CD19" s="116">
+      <c r="CD19" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE19" s="116">
+      <c r="CE19" s="86">
         <v>2.9</v>
       </c>
       <c r="CF19" s="24">
@@ -4977,10 +4980,10 @@
       <c r="CA20" s="6"/>
       <c r="CB20" s="6"/>
       <c r="CC20" s="6"/>
-      <c r="CD20" s="116">
+      <c r="CD20" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE20" s="116">
+      <c r="CE20" s="86">
         <v>2.9</v>
       </c>
       <c r="CF20" s="24">
@@ -5092,10 +5095,10 @@
       <c r="CA21" s="6"/>
       <c r="CB21" s="6"/>
       <c r="CC21" s="6"/>
-      <c r="CD21" s="116">
+      <c r="CD21" s="86">
         <v>4.2</v>
       </c>
-      <c r="CE21" s="116">
+      <c r="CE21" s="86">
         <v>4.2</v>
       </c>
       <c r="CF21" s="24">
@@ -5207,10 +5210,10 @@
       <c r="CA22" s="6"/>
       <c r="CB22" s="6"/>
       <c r="CC22" s="6"/>
-      <c r="CD22" s="116">
+      <c r="CD22" s="86">
         <v>4.2</v>
       </c>
-      <c r="CE22" s="116">
+      <c r="CE22" s="86">
         <v>4.2</v>
       </c>
       <c r="CF22" s="24">
@@ -5322,10 +5325,10 @@
       <c r="CA23" s="6"/>
       <c r="CB23" s="16"/>
       <c r="CC23" s="16"/>
-      <c r="CD23" s="116">
+      <c r="CD23" s="86">
         <v>14.65</v>
       </c>
-      <c r="CE23" s="116">
+      <c r="CE23" s="86">
         <v>14.65</v>
       </c>
       <c r="CF23" s="24">
@@ -5437,10 +5440,10 @@
       <c r="CA24" s="6"/>
       <c r="CB24" s="6"/>
       <c r="CC24" s="6"/>
-      <c r="CD24" s="116">
-        <v>0</v>
-      </c>
-      <c r="CE24" s="116"/>
+      <c r="CD24" s="86">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="86"/>
       <c r="CF24" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5546,10 +5549,10 @@
       <c r="CA25" s="6"/>
       <c r="CB25" s="6"/>
       <c r="CC25" s="6"/>
-      <c r="CD25" s="116">
+      <c r="CD25" s="86">
         <v>6.5</v>
       </c>
-      <c r="CE25" s="116">
+      <c r="CE25" s="86">
         <v>6.9</v>
       </c>
       <c r="CF25" s="24">
@@ -5657,10 +5660,10 @@
       <c r="CA26" s="6"/>
       <c r="CB26" s="6"/>
       <c r="CC26" s="6"/>
-      <c r="CD26" s="116">
+      <c r="CD26" s="86">
         <v>6.5</v>
       </c>
-      <c r="CE26" s="116">
+      <c r="CE26" s="86">
         <v>6.9</v>
       </c>
       <c r="CF26" s="24">
@@ -5772,10 +5775,10 @@
       <c r="CA27" s="6"/>
       <c r="CB27" s="6"/>
       <c r="CC27" s="6"/>
-      <c r="CD27" s="116">
+      <c r="CD27" s="86">
         <v>2.4</v>
       </c>
-      <c r="CE27" s="116">
+      <c r="CE27" s="86">
         <v>2.4</v>
       </c>
       <c r="CF27" s="24">
@@ -5887,10 +5890,10 @@
       <c r="CA28" s="6"/>
       <c r="CB28" s="6"/>
       <c r="CC28" s="6"/>
-      <c r="CD28" s="116">
+      <c r="CD28" s="86">
         <v>2.4</v>
       </c>
-      <c r="CE28" s="116">
+      <c r="CE28" s="86">
         <v>2.4</v>
       </c>
       <c r="CF28" s="24">
@@ -5998,8 +6001,8 @@
       <c r="CA29" s="6"/>
       <c r="CB29" s="6"/>
       <c r="CC29" s="6"/>
-      <c r="CD29" s="116"/>
-      <c r="CE29" s="116">
+      <c r="CD29" s="86"/>
+      <c r="CE29" s="86">
         <v>3.7</v>
       </c>
       <c r="CF29" s="24">
@@ -6107,8 +6110,8 @@
       <c r="CA30" s="6"/>
       <c r="CB30" s="6"/>
       <c r="CC30" s="6"/>
-      <c r="CD30" s="116"/>
-      <c r="CE30" s="116">
+      <c r="CD30" s="86"/>
+      <c r="CE30" s="86">
         <v>3.7</v>
       </c>
       <c r="CF30" s="24">
@@ -6220,10 +6223,10 @@
       <c r="CA31" s="6"/>
       <c r="CB31" s="6"/>
       <c r="CC31" s="6"/>
-      <c r="CD31" s="116">
+      <c r="CD31" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE31" s="116">
+      <c r="CE31" s="86">
         <v>3.45</v>
       </c>
       <c r="CF31" s="24">
@@ -6335,10 +6338,10 @@
       <c r="CA32" s="6"/>
       <c r="CB32" s="6"/>
       <c r="CC32" s="6"/>
-      <c r="CD32" s="116">
+      <c r="CD32" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE32" s="116">
+      <c r="CE32" s="86">
         <v>2.9</v>
       </c>
       <c r="CF32" s="24">
@@ -6450,10 +6453,10 @@
       <c r="CA33" s="6"/>
       <c r="CB33" s="6"/>
       <c r="CC33" s="6"/>
-      <c r="CD33" s="116">
+      <c r="CD33" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE33" s="116">
+      <c r="CE33" s="86">
         <v>2.9</v>
       </c>
       <c r="CF33" s="24">
@@ -6565,10 +6568,10 @@
       <c r="CA34" s="6"/>
       <c r="CB34" s="6"/>
       <c r="CC34" s="6"/>
-      <c r="CD34" s="116">
+      <c r="CD34" s="86">
         <v>2.9</v>
       </c>
-      <c r="CE34" s="116">
+      <c r="CE34" s="86">
         <v>2.9</v>
       </c>
       <c r="CF34" s="24">
@@ -6680,10 +6683,10 @@
       <c r="CA35" s="6"/>
       <c r="CB35" s="6"/>
       <c r="CC35" s="6"/>
-      <c r="CD35" s="116">
+      <c r="CD35" s="86">
         <v>3.7</v>
       </c>
-      <c r="CE35" s="116">
+      <c r="CE35" s="86">
         <v>3.7</v>
       </c>
       <c r="CF35" s="24">
@@ -6797,10 +6800,10 @@
       <c r="CA36" s="6"/>
       <c r="CB36" s="6"/>
       <c r="CC36" s="6"/>
-      <c r="CD36" s="116">
+      <c r="CD36" s="86">
         <v>6.4</v>
       </c>
-      <c r="CE36" s="116">
+      <c r="CE36" s="86">
         <v>2.0699999999999998</v>
       </c>
       <c r="CF36" s="24">
@@ -6914,10 +6917,10 @@
       <c r="CA37" s="11"/>
       <c r="CB37" s="11"/>
       <c r="CC37" s="11"/>
-      <c r="CD37" s="116">
+      <c r="CD37" s="86">
         <v>3.3</v>
       </c>
-      <c r="CE37" s="116">
+      <c r="CE37" s="86">
         <v>3.3</v>
       </c>
       <c r="CF37" s="24">
@@ -7029,10 +7032,10 @@
       <c r="CA38" s="6"/>
       <c r="CB38" s="6"/>
       <c r="CC38" s="6"/>
-      <c r="CD38" s="116">
+      <c r="CD38" s="86">
         <v>3.3</v>
       </c>
-      <c r="CE38" s="116">
+      <c r="CE38" s="86">
         <v>3.3</v>
       </c>
       <c r="CF38" s="24">
@@ -7144,10 +7147,10 @@
       <c r="CA39" s="6"/>
       <c r="CB39" s="6"/>
       <c r="CC39" s="6"/>
-      <c r="CD39" s="116">
+      <c r="CD39" s="86">
         <v>3.3</v>
       </c>
-      <c r="CE39" s="116">
+      <c r="CE39" s="86">
         <v>3.3</v>
       </c>
       <c r="CF39" s="24">
@@ -7259,10 +7262,10 @@
       <c r="CA40" s="6"/>
       <c r="CB40" s="6"/>
       <c r="CC40" s="6"/>
-      <c r="CD40" s="116">
+      <c r="CD40" s="86">
         <v>3.06</v>
       </c>
-      <c r="CE40" s="116">
+      <c r="CE40" s="86">
         <v>3.06</v>
       </c>
       <c r="CF40" s="24">
@@ -7376,10 +7379,10 @@
       <c r="CA41" s="6"/>
       <c r="CB41" s="6"/>
       <c r="CC41" s="6"/>
-      <c r="CD41" s="116">
+      <c r="CD41" s="86">
         <v>3.45</v>
       </c>
-      <c r="CE41" s="116">
+      <c r="CE41" s="86">
         <v>4</v>
       </c>
       <c r="CF41" s="24">
@@ -7497,10 +7500,10 @@
       <c r="CA42" s="6"/>
       <c r="CB42" s="6"/>
       <c r="CC42" s="6"/>
-      <c r="CD42" s="116">
+      <c r="CD42" s="86">
         <v>3.45</v>
       </c>
-      <c r="CE42" s="116">
+      <c r="CE42" s="86">
         <v>4</v>
       </c>
       <c r="CF42" s="24">
@@ -7610,8 +7613,8 @@
       <c r="CA43" s="6"/>
       <c r="CB43" s="6"/>
       <c r="CC43" s="6"/>
-      <c r="CD43" s="116"/>
-      <c r="CE43" s="116">
+      <c r="CD43" s="86"/>
+      <c r="CE43" s="86">
         <v>5.8</v>
       </c>
       <c r="CF43" s="24">
@@ -7721,8 +7724,8 @@
       <c r="CA44" s="6"/>
       <c r="CB44" s="6"/>
       <c r="CC44" s="6"/>
-      <c r="CD44" s="116"/>
-      <c r="CE44" s="116">
+      <c r="CD44" s="86"/>
+      <c r="CE44" s="86">
         <v>6.78</v>
       </c>
       <c r="CF44" s="24">
@@ -7834,10 +7837,10 @@
       <c r="CA45" s="6"/>
       <c r="CB45" s="6"/>
       <c r="CC45" s="6"/>
-      <c r="CD45" s="116">
+      <c r="CD45" s="86">
         <v>2.4</v>
       </c>
-      <c r="CE45" s="116">
+      <c r="CE45" s="86">
         <v>2.4</v>
       </c>
       <c r="CF45" s="24">
@@ -7949,10 +7952,10 @@
       <c r="CA46" s="6"/>
       <c r="CB46" s="6"/>
       <c r="CC46" s="6"/>
-      <c r="CD46" s="116">
+      <c r="CD46" s="86">
         <v>2.4</v>
       </c>
-      <c r="CE46" s="116">
+      <c r="CE46" s="86">
         <v>2.9</v>
       </c>
       <c r="CF46" s="24">
@@ -8073,10 +8076,10 @@
       <c r="CA47" s="6"/>
       <c r="CB47" s="6"/>
       <c r="CC47" s="6"/>
-      <c r="CD47" s="116">
+      <c r="CD47" s="86">
         <v>2.5</v>
       </c>
-      <c r="CE47" s="116">
+      <c r="CE47" s="86">
         <v>2.9</v>
       </c>
       <c r="CF47" s="24">
@@ -8188,10 +8191,10 @@
       <c r="CA48" s="6"/>
       <c r="CB48" s="6"/>
       <c r="CC48" s="6"/>
-      <c r="CD48" s="116">
+      <c r="CD48" s="86">
         <v>4.2</v>
       </c>
-      <c r="CE48" s="116">
+      <c r="CE48" s="86">
         <v>5.0999999999999996</v>
       </c>
       <c r="CF48" s="24">
@@ -8305,10 +8308,10 @@
       </c>
       <c r="CB49" s="6"/>
       <c r="CC49" s="6"/>
-      <c r="CD49" s="116">
+      <c r="CD49" s="86">
         <v>4.51</v>
       </c>
-      <c r="CE49" s="116">
+      <c r="CE49" s="86">
         <v>3.9</v>
       </c>
       <c r="CF49" s="24">
@@ -8420,10 +8423,10 @@
       <c r="CA50" s="6"/>
       <c r="CB50" s="6"/>
       <c r="CC50" s="6"/>
-      <c r="CD50" s="116">
+      <c r="CD50" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE50" s="116">
+      <c r="CE50" s="86">
         <v>3.2</v>
       </c>
       <c r="CF50" s="24">
@@ -8537,10 +8540,10 @@
       <c r="CA51" s="6"/>
       <c r="CB51" s="6"/>
       <c r="CC51" s="6"/>
-      <c r="CD51" s="116">
+      <c r="CD51" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE51" s="116">
+      <c r="CE51" s="86">
         <v>3.48</v>
       </c>
       <c r="CF51" s="24">
@@ -8661,10 +8664,10 @@
       <c r="CA52" s="6"/>
       <c r="CB52" s="16"/>
       <c r="CC52" s="16"/>
-      <c r="CD52" s="116">
+      <c r="CD52" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE52" s="116">
+      <c r="CE52" s="86">
         <v>3.48</v>
       </c>
       <c r="CF52" s="24">
@@ -8774,10 +8777,10 @@
       <c r="CA53" s="6"/>
       <c r="CB53" s="16"/>
       <c r="CC53" s="16"/>
-      <c r="CD53" s="116">
+      <c r="CD53" s="86">
         <v>6.5</v>
       </c>
-      <c r="CE53" s="116">
+      <c r="CE53" s="86">
         <v>6.5</v>
       </c>
       <c r="CF53" s="24">
@@ -8887,10 +8890,10 @@
       <c r="CA54" s="6"/>
       <c r="CB54" s="16"/>
       <c r="CC54" s="16"/>
-      <c r="CD54" s="116">
+      <c r="CD54" s="86">
         <v>6.5</v>
       </c>
-      <c r="CE54" s="116">
+      <c r="CE54" s="86">
         <v>6.5</v>
       </c>
       <c r="CF54" s="24">
@@ -9000,10 +9003,10 @@
       <c r="CA55" s="6"/>
       <c r="CB55" s="16"/>
       <c r="CC55" s="16"/>
-      <c r="CD55" s="116">
+      <c r="CD55" s="86">
         <v>6.5</v>
       </c>
-      <c r="CE55" s="116">
+      <c r="CE55" s="86">
         <v>6.5</v>
       </c>
       <c r="CF55" s="24">
@@ -9111,8 +9114,8 @@
       <c r="CA56" s="6"/>
       <c r="CB56" s="16"/>
       <c r="CC56" s="16"/>
-      <c r="CD56" s="116"/>
-      <c r="CE56" s="116">
+      <c r="CD56" s="86"/>
+      <c r="CE56" s="86">
         <v>6.5</v>
       </c>
       <c r="CF56" s="24">
@@ -9239,10 +9242,10 @@
       <c r="CA57" s="6"/>
       <c r="CB57" s="6"/>
       <c r="CC57" s="6"/>
-      <c r="CD57" s="116">
+      <c r="CD57" s="86">
         <v>4.2</v>
       </c>
-      <c r="CE57" s="116">
+      <c r="CE57" s="86">
         <v>4.55</v>
       </c>
       <c r="CF57" s="24">
@@ -9376,10 +9379,10 @@
       <c r="CA58" s="6"/>
       <c r="CB58" s="6"/>
       <c r="CC58" s="6"/>
-      <c r="CD58" s="116">
+      <c r="CD58" s="86">
         <v>4.2</v>
       </c>
-      <c r="CE58" s="116">
+      <c r="CE58" s="86">
         <v>4.55</v>
       </c>
       <c r="CF58" s="24">
@@ -9491,10 +9494,10 @@
       <c r="CA59" s="6"/>
       <c r="CB59" s="6"/>
       <c r="CC59" s="6"/>
-      <c r="CD59" s="116">
+      <c r="CD59" s="86">
         <v>10.5</v>
       </c>
-      <c r="CE59" s="116">
+      <c r="CE59" s="86">
         <v>10.5</v>
       </c>
       <c r="CF59" s="24">
@@ -9606,10 +9609,10 @@
       <c r="CA60" s="14"/>
       <c r="CB60" s="14"/>
       <c r="CC60" s="14"/>
-      <c r="CD60" s="116">
+      <c r="CD60" s="86">
         <v>10.5</v>
       </c>
-      <c r="CE60" s="116">
+      <c r="CE60" s="86">
         <v>10.5</v>
       </c>
       <c r="CF60" s="24">
@@ -9717,8 +9720,8 @@
       <c r="CA61" s="14"/>
       <c r="CB61" s="14"/>
       <c r="CC61" s="14"/>
-      <c r="CD61" s="116"/>
-      <c r="CE61" s="116">
+      <c r="CD61" s="86"/>
+      <c r="CE61" s="86">
         <v>4.4000000000000004</v>
       </c>
       <c r="CF61" s="24">
@@ -9830,10 +9833,10 @@
       <c r="CA62" s="6"/>
       <c r="CB62" s="6"/>
       <c r="CC62" s="6"/>
-      <c r="CD62" s="116">
+      <c r="CD62" s="86">
         <v>2.75</v>
       </c>
-      <c r="CE62" s="116">
+      <c r="CE62" s="86">
         <v>2.75</v>
       </c>
       <c r="CF62" s="24">
@@ -9945,10 +9948,10 @@
       <c r="CA63" s="6"/>
       <c r="CB63" s="6"/>
       <c r="CC63" s="6"/>
-      <c r="CD63" s="116">
+      <c r="CD63" s="86">
         <v>2.75</v>
       </c>
-      <c r="CE63" s="116">
+      <c r="CE63" s="86">
         <v>2.75</v>
       </c>
       <c r="CF63" s="24">
@@ -10060,10 +10063,10 @@
       <c r="CA64" s="6"/>
       <c r="CB64" s="6"/>
       <c r="CC64" s="6"/>
-      <c r="CD64" s="116">
+      <c r="CD64" s="86">
         <v>2.4</v>
       </c>
-      <c r="CE64" s="116">
+      <c r="CE64" s="86">
         <v>2.4</v>
       </c>
       <c r="CF64" s="24">
@@ -10177,10 +10180,10 @@
       <c r="CA65" s="6"/>
       <c r="CB65" s="6"/>
       <c r="CC65" s="6"/>
-      <c r="CD65" s="116">
+      <c r="CD65" s="86">
         <v>2.6</v>
       </c>
-      <c r="CE65" s="116">
+      <c r="CE65" s="86">
         <v>2.93</v>
       </c>
       <c r="CF65" s="24">
@@ -10292,10 +10295,10 @@
       <c r="CA66" s="6"/>
       <c r="CB66" s="6"/>
       <c r="CC66" s="6"/>
-      <c r="CD66" s="116">
+      <c r="CD66" s="86">
         <v>2.6</v>
       </c>
-      <c r="CE66" s="116">
+      <c r="CE66" s="86">
         <v>2.93</v>
       </c>
       <c r="CF66" s="24">
@@ -10407,10 +10410,10 @@
       <c r="CA67" s="6"/>
       <c r="CB67" s="15"/>
       <c r="CC67" s="15"/>
-      <c r="CD67" s="116">
+      <c r="CD67" s="86">
         <v>2.6</v>
       </c>
-      <c r="CE67" s="116">
+      <c r="CE67" s="86">
         <v>2.6</v>
       </c>
       <c r="CF67" s="24">
@@ -10524,10 +10527,10 @@
       <c r="CA68" s="6"/>
       <c r="CB68" s="6"/>
       <c r="CC68" s="6"/>
-      <c r="CD68" s="116">
+      <c r="CD68" s="86">
         <v>3.5</v>
       </c>
-      <c r="CE68" s="116">
+      <c r="CE68" s="86">
         <v>5.2</v>
       </c>
       <c r="CF68" s="24">
@@ -10641,10 +10644,10 @@
       <c r="CA69" s="6"/>
       <c r="CB69" s="6"/>
       <c r="CC69" s="6"/>
-      <c r="CD69" s="116">
+      <c r="CD69" s="86">
         <v>4.0999999999999996</v>
       </c>
-      <c r="CE69" s="116">
+      <c r="CE69" s="86">
         <v>4.0999999999999996</v>
       </c>
       <c r="CF69" s="24">
@@ -10756,10 +10759,10 @@
       <c r="CA70" s="25"/>
       <c r="CB70" s="16"/>
       <c r="CC70" s="16"/>
-      <c r="CD70" s="116">
+      <c r="CD70" s="86">
         <v>2.85</v>
       </c>
-      <c r="CE70" s="116">
+      <c r="CE70" s="86">
         <v>2.95</v>
       </c>
       <c r="CF70" s="24">
@@ -10871,10 +10874,10 @@
       <c r="CA71" s="6"/>
       <c r="CB71" s="15"/>
       <c r="CC71" s="15"/>
-      <c r="CD71" s="116">
+      <c r="CD71" s="86">
         <v>3</v>
       </c>
-      <c r="CE71" s="116">
+      <c r="CE71" s="86">
         <v>3.5</v>
       </c>
       <c r="CF71" s="24">
@@ -10996,10 +10999,10 @@
       <c r="CA72" s="14"/>
       <c r="CB72" s="29"/>
       <c r="CC72" s="29"/>
-      <c r="CD72" s="116">
+      <c r="CD72" s="86">
         <v>3.1</v>
       </c>
-      <c r="CE72" s="116">
+      <c r="CE72" s="86">
         <v>3.75</v>
       </c>
       <c r="CF72" s="24">
@@ -11107,8 +11110,8 @@
       <c r="CA73" s="14"/>
       <c r="CB73" s="29"/>
       <c r="CC73" s="29"/>
-      <c r="CD73" s="116"/>
-      <c r="CE73" s="116">
+      <c r="CD73" s="86"/>
+      <c r="CE73" s="86">
         <v>3.17</v>
       </c>
       <c r="CF73" s="24">
@@ -11117,12 +11120,12 @@
       </c>
     </row>
     <row r="74" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106"/>
       <c r="E74" s="70"/>
       <c r="F74" s="55">
         <f t="shared" si="7"/>
@@ -11212,8 +11215,8 @@
       <c r="CA74" s="14"/>
       <c r="CB74" s="29"/>
       <c r="CC74" s="29"/>
-      <c r="CD74" s="116"/>
-      <c r="CE74" s="116"/>
+      <c r="CD74" s="86"/>
+      <c r="CE74" s="86"/>
       <c r="CF74" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11321,10 +11324,10 @@
       <c r="CA75" s="14"/>
       <c r="CB75" s="29"/>
       <c r="CC75" s="29"/>
-      <c r="CD75" s="116">
+      <c r="CD75" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE75" s="116">
+      <c r="CE75" s="86">
         <v>1.8</v>
       </c>
       <c r="CF75" s="24">
@@ -11434,10 +11437,10 @@
       <c r="CA76" s="14"/>
       <c r="CB76" s="29"/>
       <c r="CC76" s="29"/>
-      <c r="CD76" s="116">
+      <c r="CD76" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE76" s="116">
+      <c r="CE76" s="86">
         <v>1.8</v>
       </c>
       <c r="CF76" s="24">
@@ -11547,10 +11550,10 @@
       <c r="CA77" s="14"/>
       <c r="CB77" s="29"/>
       <c r="CC77" s="29"/>
-      <c r="CD77" s="116">
+      <c r="CD77" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE77" s="116">
+      <c r="CE77" s="86">
         <v>1.8</v>
       </c>
       <c r="CF77" s="24">
@@ -11660,10 +11663,10 @@
       <c r="CA78" s="14"/>
       <c r="CB78" s="29"/>
       <c r="CC78" s="29"/>
-      <c r="CD78" s="116">
+      <c r="CD78" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE78" s="116">
+      <c r="CE78" s="86">
         <v>1.8</v>
       </c>
       <c r="CF78" s="24">
@@ -11773,10 +11776,10 @@
       <c r="CA79" s="14"/>
       <c r="CB79" s="29"/>
       <c r="CC79" s="29"/>
-      <c r="CD79" s="116">
+      <c r="CD79" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE79" s="116">
+      <c r="CE79" s="86">
         <v>1.8</v>
       </c>
       <c r="CF79" s="24">
@@ -11886,10 +11889,10 @@
       <c r="CA80" s="14"/>
       <c r="CB80" s="29"/>
       <c r="CC80" s="29"/>
-      <c r="CD80" s="116">
+      <c r="CD80" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE80" s="116">
+      <c r="CE80" s="86">
         <v>1.8</v>
       </c>
       <c r="CF80" s="24">
@@ -11999,10 +12002,10 @@
       <c r="CA81" s="14"/>
       <c r="CB81" s="29"/>
       <c r="CC81" s="29"/>
-      <c r="CD81" s="116">
+      <c r="CD81" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE81" s="116">
+      <c r="CE81" s="86">
         <v>1.8</v>
       </c>
       <c r="CF81" s="24">
@@ -12112,10 +12115,10 @@
       <c r="CA82" s="14"/>
       <c r="CB82" s="29"/>
       <c r="CC82" s="29"/>
-      <c r="CD82" s="116">
+      <c r="CD82" s="86">
         <v>2</v>
       </c>
-      <c r="CE82" s="116">
+      <c r="CE82" s="86">
         <v>1.8</v>
       </c>
       <c r="CF82" s="24">
@@ -12225,10 +12228,10 @@
       <c r="CA83" s="14"/>
       <c r="CB83" s="29"/>
       <c r="CC83" s="29"/>
-      <c r="CD83" s="116">
+      <c r="CD83" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE83" s="116">
+      <c r="CE83" s="86">
         <v>1.8</v>
       </c>
       <c r="CF83" s="24">
@@ -12338,10 +12341,10 @@
       <c r="CA84" s="14"/>
       <c r="CB84" s="29"/>
       <c r="CC84" s="29"/>
-      <c r="CD84" s="116">
+      <c r="CD84" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE84" s="116">
+      <c r="CE84" s="86">
         <v>1.8</v>
       </c>
       <c r="CF84" s="24">
@@ -12451,10 +12454,10 @@
       <c r="CA85" s="14"/>
       <c r="CB85" s="29"/>
       <c r="CC85" s="29"/>
-      <c r="CD85" s="116">
+      <c r="CD85" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE85" s="116">
+      <c r="CE85" s="86">
         <v>1.8</v>
       </c>
       <c r="CF85" s="24">
@@ -12564,10 +12567,10 @@
       <c r="CA86" s="14"/>
       <c r="CB86" s="29"/>
       <c r="CC86" s="29"/>
-      <c r="CD86" s="116">
+      <c r="CD86" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE86" s="116">
+      <c r="CE86" s="86">
         <v>1.8</v>
       </c>
       <c r="CF86" s="24">
@@ -12677,10 +12680,10 @@
       <c r="CA87" s="14"/>
       <c r="CB87" s="29"/>
       <c r="CC87" s="29"/>
-      <c r="CD87" s="116">
+      <c r="CD87" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE87" s="116">
+      <c r="CE87" s="86">
         <v>1.8</v>
       </c>
       <c r="CF87" s="24">
@@ -12790,10 +12793,10 @@
       <c r="CA88" s="14"/>
       <c r="CB88" s="29"/>
       <c r="CC88" s="29"/>
-      <c r="CD88" s="116">
+      <c r="CD88" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE88" s="116">
+      <c r="CE88" s="86">
         <v>1.8</v>
       </c>
       <c r="CF88" s="24">
@@ -12903,10 +12906,10 @@
       <c r="CA89" s="14"/>
       <c r="CB89" s="29"/>
       <c r="CC89" s="29"/>
-      <c r="CD89" s="116">
+      <c r="CD89" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE89" s="116">
+      <c r="CE89" s="86">
         <v>1.8</v>
       </c>
       <c r="CF89" s="24">
@@ -13016,10 +13019,10 @@
       <c r="CA90" s="14"/>
       <c r="CB90" s="29"/>
       <c r="CC90" s="29"/>
-      <c r="CD90" s="116">
+      <c r="CD90" s="86">
         <v>2</v>
       </c>
-      <c r="CE90" s="116">
+      <c r="CE90" s="86">
         <v>1.8</v>
       </c>
       <c r="CF90" s="24">
@@ -13129,10 +13132,10 @@
       <c r="CA91" s="14"/>
       <c r="CB91" s="29"/>
       <c r="CC91" s="29"/>
-      <c r="CD91" s="116">
+      <c r="CD91" s="86">
         <v>1.8</v>
       </c>
-      <c r="CE91" s="116">
+      <c r="CE91" s="86">
         <v>1.8</v>
       </c>
       <c r="CF91" s="24">
@@ -13141,12 +13144,12 @@
       </c>
     </row>
     <row r="92" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="90"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="106"/>
       <c r="E92" s="73"/>
       <c r="F92" s="56"/>
       <c r="G92" s="26">
@@ -13233,8 +13236,8 @@
       <c r="CA92" s="14"/>
       <c r="CB92" s="29"/>
       <c r="CC92" s="29"/>
-      <c r="CD92" s="116"/>
-      <c r="CE92" s="116"/>
+      <c r="CD92" s="86"/>
+      <c r="CE92" s="86"/>
       <c r="CF92" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13342,10 +13345,10 @@
       <c r="CA93" s="14"/>
       <c r="CB93" s="29"/>
       <c r="CC93" s="29"/>
-      <c r="CD93" s="116">
+      <c r="CD93" s="86">
         <v>4.4000000000000004</v>
       </c>
-      <c r="CE93" s="116">
+      <c r="CE93" s="86">
         <v>4.4000000000000004</v>
       </c>
       <c r="CF93" s="24">
@@ -13455,10 +13458,10 @@
       <c r="CA94" s="14"/>
       <c r="CB94" s="29"/>
       <c r="CC94" s="29"/>
-      <c r="CD94" s="116">
+      <c r="CD94" s="86">
         <v>4.4000000000000004</v>
       </c>
-      <c r="CE94" s="116">
+      <c r="CE94" s="86">
         <v>4.4000000000000004</v>
       </c>
       <c r="CF94" s="24">
@@ -13568,10 +13571,10 @@
       <c r="CA95" s="14"/>
       <c r="CB95" s="29"/>
       <c r="CC95" s="29"/>
-      <c r="CD95" s="116">
+      <c r="CD95" s="86">
         <v>4.4000000000000004</v>
       </c>
-      <c r="CE95" s="116">
+      <c r="CE95" s="86">
         <v>4.4000000000000004</v>
       </c>
       <c r="CF95" s="24">
@@ -13681,10 +13684,10 @@
       <c r="CA96" s="14"/>
       <c r="CB96" s="29"/>
       <c r="CC96" s="29"/>
-      <c r="CD96" s="116">
+      <c r="CD96" s="86">
         <v>5.6</v>
       </c>
-      <c r="CE96" s="116">
+      <c r="CE96" s="86">
         <v>5.6</v>
       </c>
       <c r="CF96" s="24">
@@ -13792,10 +13795,10 @@
       <c r="CA97" s="14"/>
       <c r="CB97" s="29"/>
       <c r="CC97" s="29"/>
-      <c r="CD97" s="116">
+      <c r="CD97" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE97" s="116">
+      <c r="CE97" s="86">
         <v>3.2</v>
       </c>
       <c r="CF97" s="24">
@@ -13903,10 +13906,10 @@
       <c r="CA98" s="14"/>
       <c r="CB98" s="29"/>
       <c r="CC98" s="29"/>
-      <c r="CD98" s="116">
+      <c r="CD98" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE98" s="116">
+      <c r="CE98" s="86">
         <v>3.2</v>
       </c>
       <c r="CF98" s="24">
@@ -14014,10 +14017,10 @@
       <c r="CA99" s="14"/>
       <c r="CB99" s="29"/>
       <c r="CC99" s="29"/>
-      <c r="CD99" s="116">
+      <c r="CD99" s="86">
         <v>12</v>
       </c>
-      <c r="CE99" s="116">
+      <c r="CE99" s="86">
         <v>12</v>
       </c>
       <c r="CF99" s="24">
@@ -14125,8 +14128,8 @@
       <c r="CA100" s="14"/>
       <c r="CB100" s="29"/>
       <c r="CC100" s="29"/>
-      <c r="CD100" s="116"/>
-      <c r="CE100" s="116">
+      <c r="CD100" s="86"/>
+      <c r="CE100" s="86">
         <v>8.1999999999999993</v>
       </c>
       <c r="CF100" s="24">
@@ -14234,10 +14237,10 @@
       <c r="CA101" s="14"/>
       <c r="CB101" s="29"/>
       <c r="CC101" s="29"/>
-      <c r="CD101" s="116">
+      <c r="CD101" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE101" s="116">
+      <c r="CE101" s="86">
         <v>3.2</v>
       </c>
       <c r="CF101" s="24">
@@ -14345,10 +14348,10 @@
       <c r="CA102" s="14"/>
       <c r="CB102" s="29"/>
       <c r="CC102" s="29"/>
-      <c r="CD102" s="116">
+      <c r="CD102" s="86">
         <v>3.2</v>
       </c>
-      <c r="CE102" s="116">
+      <c r="CE102" s="86">
         <v>3.2</v>
       </c>
       <c r="CF102" s="24">
@@ -14458,10 +14461,10 @@
       <c r="CA103" s="14"/>
       <c r="CB103" s="29"/>
       <c r="CC103" s="29"/>
-      <c r="CD103" s="116">
+      <c r="CD103" s="86">
         <v>5.6</v>
       </c>
-      <c r="CE103" s="116">
+      <c r="CE103" s="86">
         <v>5.6</v>
       </c>
       <c r="CF103" s="24">
@@ -14571,10 +14574,10 @@
       <c r="CA104" s="14"/>
       <c r="CB104" s="29"/>
       <c r="CC104" s="29"/>
-      <c r="CD104" s="116">
+      <c r="CD104" s="86">
         <v>5.6</v>
       </c>
-      <c r="CE104" s="116">
+      <c r="CE104" s="86">
         <v>5.6</v>
       </c>
       <c r="CF104" s="24">
@@ -14583,12 +14586,12 @@
       </c>
     </row>
     <row r="105" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="91" t="s">
+      <c r="A105" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="89"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="90"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="106"/>
       <c r="E105" s="73"/>
       <c r="F105" s="56"/>
       <c r="G105" s="26">
@@ -14675,8 +14678,8 @@
       <c r="CA105" s="14"/>
       <c r="CB105" s="29"/>
       <c r="CC105" s="29"/>
-      <c r="CD105" s="116"/>
-      <c r="CE105" s="116"/>
+      <c r="CD105" s="86"/>
+      <c r="CE105" s="86"/>
       <c r="CF105" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14784,10 +14787,10 @@
       <c r="CA106" s="14"/>
       <c r="CB106" s="29"/>
       <c r="CC106" s="29"/>
-      <c r="CD106" s="116">
+      <c r="CD106" s="86">
         <v>0.76</v>
       </c>
-      <c r="CE106" s="116">
+      <c r="CE106" s="86">
         <v>0.76</v>
       </c>
       <c r="CF106" s="24">
@@ -14897,10 +14900,10 @@
       <c r="CA107" s="14"/>
       <c r="CB107" s="29"/>
       <c r="CC107" s="29"/>
-      <c r="CD107" s="116">
+      <c r="CD107" s="86">
         <v>0.76</v>
       </c>
-      <c r="CE107" s="116">
+      <c r="CE107" s="86">
         <v>0.76</v>
       </c>
       <c r="CF107" s="24">
@@ -15010,10 +15013,10 @@
       <c r="CA108" s="14"/>
       <c r="CB108" s="29"/>
       <c r="CC108" s="29"/>
-      <c r="CD108" s="116">
+      <c r="CD108" s="86">
         <v>0.76</v>
       </c>
-      <c r="CE108" s="116">
+      <c r="CE108" s="86">
         <v>0.76</v>
       </c>
       <c r="CF108" s="24">
@@ -15123,10 +15126,10 @@
       <c r="CA109" s="14"/>
       <c r="CB109" s="29"/>
       <c r="CC109" s="29"/>
-      <c r="CD109" s="116">
+      <c r="CD109" s="86">
         <v>0.76</v>
       </c>
-      <c r="CE109" s="116">
+      <c r="CE109" s="86">
         <v>0.76</v>
       </c>
       <c r="CF109" s="24">
@@ -15236,10 +15239,10 @@
       <c r="CA110" s="14"/>
       <c r="CB110" s="29"/>
       <c r="CC110" s="29"/>
-      <c r="CD110" s="116">
+      <c r="CD110" s="86">
         <v>0.76</v>
       </c>
-      <c r="CE110" s="116">
+      <c r="CE110" s="86">
         <v>0.76</v>
       </c>
       <c r="CF110" s="24">
@@ -15349,10 +15352,10 @@
       <c r="CA111" s="14"/>
       <c r="CB111" s="29"/>
       <c r="CC111" s="29"/>
-      <c r="CD111" s="116">
+      <c r="CD111" s="86">
         <v>0.76</v>
       </c>
-      <c r="CE111" s="116">
+      <c r="CE111" s="86">
         <v>0.76</v>
       </c>
       <c r="CF111" s="24">
@@ -15361,12 +15364,12 @@
       </c>
     </row>
     <row r="112" spans="1:84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="86" t="s">
+      <c r="A112" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="B112" s="89"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="90"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="106"/>
       <c r="E112" s="73"/>
       <c r="F112" s="56"/>
       <c r="G112" s="26">
@@ -15453,8 +15456,8 @@
       <c r="CA112" s="14"/>
       <c r="CB112" s="29"/>
       <c r="CC112" s="29"/>
-      <c r="CD112" s="116"/>
-      <c r="CE112" s="116"/>
+      <c r="CD112" s="86"/>
+      <c r="CE112" s="86"/>
       <c r="CF112" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15562,10 +15565,10 @@
       <c r="CA113" s="14"/>
       <c r="CB113" s="29"/>
       <c r="CC113" s="29"/>
-      <c r="CD113" s="116">
+      <c r="CD113" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE113" s="116">
+      <c r="CE113" s="86">
         <v>0.35</v>
       </c>
       <c r="CF113" s="24">
@@ -15683,10 +15686,10 @@
       <c r="CA114" s="14"/>
       <c r="CB114" s="29"/>
       <c r="CC114" s="29"/>
-      <c r="CD114" s="116">
+      <c r="CD114" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE114" s="116">
+      <c r="CE114" s="86">
         <v>0.35</v>
       </c>
       <c r="CF114" s="24">
@@ -15796,10 +15799,10 @@
       <c r="CA115" s="14"/>
       <c r="CB115" s="29"/>
       <c r="CC115" s="29"/>
-      <c r="CD115" s="116">
+      <c r="CD115" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE115" s="116">
+      <c r="CE115" s="86">
         <v>0.35</v>
       </c>
       <c r="CF115" s="24">
@@ -15917,10 +15920,10 @@
       <c r="CA116" s="14"/>
       <c r="CB116" s="29"/>
       <c r="CC116" s="29"/>
-      <c r="CD116" s="116">
-        <v>0</v>
-      </c>
-      <c r="CE116" s="116">
+      <c r="CD116" s="86">
+        <v>0</v>
+      </c>
+      <c r="CE116" s="86">
         <v>0.35</v>
       </c>
       <c r="CF116" s="24">
@@ -16025,8 +16028,8 @@
       <c r="CA117" s="14"/>
       <c r="CB117" s="29"/>
       <c r="CC117" s="29"/>
-      <c r="CD117" s="116"/>
-      <c r="CE117" s="116">
+      <c r="CD117" s="86"/>
+      <c r="CE117" s="86">
         <v>0.35</v>
       </c>
       <c r="CF117" s="24">
@@ -16136,10 +16139,10 @@
       <c r="CA118" s="14"/>
       <c r="CB118" s="29"/>
       <c r="CC118" s="29"/>
-      <c r="CD118" s="116">
+      <c r="CD118" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE118" s="116">
+      <c r="CE118" s="86">
         <v>0.35</v>
       </c>
       <c r="CF118" s="24">
@@ -16249,10 +16252,10 @@
       <c r="CA119" s="14"/>
       <c r="CB119" s="29"/>
       <c r="CC119" s="29"/>
-      <c r="CD119" s="116">
+      <c r="CD119" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE119" s="116">
+      <c r="CE119" s="86">
         <v>0.35</v>
       </c>
       <c r="CF119" s="24">
@@ -16362,10 +16365,10 @@
       <c r="CA120" s="14"/>
       <c r="CB120" s="29"/>
       <c r="CC120" s="29"/>
-      <c r="CD120" s="116">
-        <v>0</v>
-      </c>
-      <c r="CE120" s="116">
+      <c r="CD120" s="86">
+        <v>0</v>
+      </c>
+      <c r="CE120" s="86">
         <v>0.35</v>
       </c>
       <c r="CF120" s="24">
@@ -16475,10 +16478,10 @@
       <c r="CA121" s="14"/>
       <c r="CB121" s="29"/>
       <c r="CC121" s="29"/>
-      <c r="CD121" s="116">
+      <c r="CD121" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE121" s="116">
+      <c r="CE121" s="86">
         <v>0.35</v>
       </c>
       <c r="CF121" s="24">
@@ -16588,8 +16591,8 @@
       <c r="CA122" s="14"/>
       <c r="CB122" s="29"/>
       <c r="CC122" s="29"/>
-      <c r="CD122" s="116"/>
-      <c r="CE122" s="116">
+      <c r="CD122" s="86"/>
+      <c r="CE122" s="86">
         <v>0.35</v>
       </c>
       <c r="CF122" s="24">
@@ -16699,10 +16702,10 @@
       <c r="CA123" s="14"/>
       <c r="CB123" s="29"/>
       <c r="CC123" s="29"/>
-      <c r="CD123" s="116">
+      <c r="CD123" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE123" s="116">
+      <c r="CE123" s="86">
         <v>0.35</v>
       </c>
       <c r="CF123" s="24">
@@ -16812,10 +16815,10 @@
       <c r="CA124" s="14"/>
       <c r="CB124" s="29"/>
       <c r="CC124" s="29"/>
-      <c r="CD124" s="116">
+      <c r="CD124" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE124" s="116">
+      <c r="CE124" s="86">
         <v>0.35</v>
       </c>
       <c r="CF124" s="24">
@@ -16927,10 +16930,10 @@
       <c r="CA125" s="14"/>
       <c r="CB125" s="29"/>
       <c r="CC125" s="29"/>
-      <c r="CD125" s="116">
+      <c r="CD125" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE125" s="116">
+      <c r="CE125" s="86">
         <v>0.35</v>
       </c>
       <c r="CF125" s="24">
@@ -17044,10 +17047,10 @@
       <c r="CA126" s="14"/>
       <c r="CB126" s="29"/>
       <c r="CC126" s="29"/>
-      <c r="CD126" s="116">
+      <c r="CD126" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE126" s="116">
+      <c r="CE126" s="86">
         <v>0.35</v>
       </c>
       <c r="CF126" s="24">
@@ -17159,10 +17162,10 @@
       <c r="CA127" s="14"/>
       <c r="CB127" s="29"/>
       <c r="CC127" s="29"/>
-      <c r="CD127" s="116">
+      <c r="CD127" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE127" s="116">
+      <c r="CE127" s="86">
         <v>0.35</v>
       </c>
       <c r="CF127" s="24">
@@ -17272,10 +17275,10 @@
       <c r="CA128" s="14"/>
       <c r="CB128" s="29"/>
       <c r="CC128" s="29"/>
-      <c r="CD128" s="116">
+      <c r="CD128" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE128" s="116">
+      <c r="CE128" s="86">
         <v>0.35</v>
       </c>
       <c r="CF128" s="24">
@@ -17385,10 +17388,10 @@
       <c r="CA129" s="14"/>
       <c r="CB129" s="29"/>
       <c r="CC129" s="29"/>
-      <c r="CD129" s="116">
+      <c r="CD129" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE129" s="116">
+      <c r="CE129" s="86">
         <v>0.35</v>
       </c>
       <c r="CF129" s="24">
@@ -17510,10 +17513,10 @@
       <c r="CA130" s="14"/>
       <c r="CB130" s="29"/>
       <c r="CC130" s="29"/>
-      <c r="CD130" s="116">
+      <c r="CD130" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE130" s="116">
+      <c r="CE130" s="86">
         <v>0.35</v>
       </c>
       <c r="CF130" s="24">
@@ -17623,10 +17626,10 @@
       <c r="CA131" s="14"/>
       <c r="CB131" s="29"/>
       <c r="CC131" s="29"/>
-      <c r="CD131" s="116">
+      <c r="CD131" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE131" s="116">
+      <c r="CE131" s="86">
         <v>0.35</v>
       </c>
       <c r="CF131" s="24">
@@ -17740,10 +17743,10 @@
       <c r="CA132" s="14"/>
       <c r="CB132" s="29"/>
       <c r="CC132" s="29"/>
-      <c r="CD132" s="116">
+      <c r="CD132" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE132" s="116">
+      <c r="CE132" s="86">
         <v>0.35</v>
       </c>
       <c r="CF132" s="24">
@@ -17880,10 +17883,10 @@
       <c r="CA133" s="83"/>
       <c r="CB133" s="82"/>
       <c r="CC133" s="82"/>
-      <c r="CD133" s="121">
+      <c r="CD133" s="89">
         <v>0.35</v>
       </c>
-      <c r="CE133" s="121">
+      <c r="CE133" s="89">
         <v>0.35</v>
       </c>
       <c r="CF133" s="79">
@@ -17993,10 +17996,10 @@
       <c r="CA134" s="14"/>
       <c r="CB134" s="29"/>
       <c r="CC134" s="29"/>
-      <c r="CD134" s="116">
+      <c r="CD134" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE134" s="116">
+      <c r="CE134" s="86">
         <v>0.35</v>
       </c>
       <c r="CF134" s="24">
@@ -18106,10 +18109,10 @@
       <c r="CA135" s="14"/>
       <c r="CB135" s="29"/>
       <c r="CC135" s="29"/>
-      <c r="CD135" s="116">
+      <c r="CD135" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE135" s="116">
+      <c r="CE135" s="86">
         <v>0.35</v>
       </c>
       <c r="CF135" s="24">
@@ -18221,10 +18224,10 @@
       <c r="CA136" s="14"/>
       <c r="CB136" s="29"/>
       <c r="CC136" s="29"/>
-      <c r="CD136" s="116">
+      <c r="CD136" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE136" s="116">
+      <c r="CE136" s="86">
         <v>0.35</v>
       </c>
       <c r="CF136" s="24">
@@ -18334,10 +18337,10 @@
       <c r="CA137" s="14"/>
       <c r="CB137" s="29"/>
       <c r="CC137" s="29"/>
-      <c r="CD137" s="116">
+      <c r="CD137" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE137" s="116">
+      <c r="CE137" s="86">
         <v>0.35</v>
       </c>
       <c r="CF137" s="24">
@@ -18449,10 +18452,10 @@
       <c r="CA138" s="14"/>
       <c r="CB138" s="29"/>
       <c r="CC138" s="29"/>
-      <c r="CD138" s="116">
+      <c r="CD138" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE138" s="116">
+      <c r="CE138" s="86">
         <v>0.35</v>
       </c>
       <c r="CF138" s="24">
@@ -18562,10 +18565,10 @@
       <c r="CA139" s="14"/>
       <c r="CB139" s="29"/>
       <c r="CC139" s="29"/>
-      <c r="CD139" s="116">
+      <c r="CD139" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE139" s="116">
+      <c r="CE139" s="86">
         <v>0.35</v>
       </c>
       <c r="CF139" s="24">
@@ -18675,10 +18678,10 @@
       <c r="CA140" s="14"/>
       <c r="CB140" s="29"/>
       <c r="CC140" s="29"/>
-      <c r="CD140" s="116">
-        <v>0</v>
-      </c>
-      <c r="CE140" s="116">
+      <c r="CD140" s="86">
+        <v>0</v>
+      </c>
+      <c r="CE140" s="86">
         <v>0.35</v>
       </c>
       <c r="CF140" s="24">
@@ -18788,10 +18791,10 @@
       <c r="CA141" s="14"/>
       <c r="CB141" s="29"/>
       <c r="CC141" s="29"/>
-      <c r="CD141" s="116">
+      <c r="CD141" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE141" s="116">
+      <c r="CE141" s="86">
         <v>0.35</v>
       </c>
       <c r="CF141" s="24">
@@ -18905,10 +18908,10 @@
       <c r="CA142" s="14"/>
       <c r="CB142" s="29"/>
       <c r="CC142" s="29"/>
-      <c r="CD142" s="116">
+      <c r="CD142" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE142" s="116">
+      <c r="CE142" s="86">
         <v>0.35</v>
       </c>
       <c r="CF142" s="24">
@@ -19024,10 +19027,10 @@
       <c r="CA143" s="14"/>
       <c r="CB143" s="29"/>
       <c r="CC143" s="29"/>
-      <c r="CD143" s="116">
+      <c r="CD143" s="86">
         <v>0.35</v>
       </c>
-      <c r="CE143" s="116">
+      <c r="CE143" s="86">
         <v>0.35</v>
       </c>
       <c r="CF143" s="24">
@@ -19036,12 +19039,12 @@
       </c>
     </row>
     <row r="144" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="91" t="s">
+      <c r="A144" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B144" s="89"/>
-      <c r="C144" s="89"/>
-      <c r="D144" s="90"/>
+      <c r="B144" s="105"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="106"/>
       <c r="E144" s="70"/>
       <c r="F144" s="24"/>
       <c r="G144" s="26">
@@ -19128,8 +19131,8 @@
       <c r="CA144" s="14"/>
       <c r="CB144" s="29"/>
       <c r="CC144" s="29"/>
-      <c r="CD144" s="116"/>
-      <c r="CE144" s="116"/>
+      <c r="CD144" s="86"/>
+      <c r="CE144" s="86"/>
       <c r="CF144" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -19237,10 +19240,10 @@
       <c r="CA145" s="14"/>
       <c r="CB145" s="29"/>
       <c r="CC145" s="29"/>
-      <c r="CD145" s="116">
+      <c r="CD145" s="86">
         <v>64</v>
       </c>
-      <c r="CE145" s="116">
+      <c r="CE145" s="86">
         <v>64</v>
       </c>
       <c r="CF145" s="24">
@@ -19409,10 +19412,10 @@
       </c>
       <c r="CB146" s="29"/>
       <c r="CC146" s="29"/>
-      <c r="CD146" s="116">
+      <c r="CD146" s="86">
         <v>83</v>
       </c>
-      <c r="CE146" s="116">
+      <c r="CE146" s="86">
         <v>122</v>
       </c>
       <c r="CF146" s="24">
@@ -19522,10 +19525,10 @@
       <c r="CA147" s="14"/>
       <c r="CB147" s="29"/>
       <c r="CC147" s="29"/>
-      <c r="CD147" s="116">
+      <c r="CD147" s="86">
         <v>83</v>
       </c>
-      <c r="CE147" s="116">
+      <c r="CE147" s="86">
         <v>130</v>
       </c>
       <c r="CF147" s="24">
@@ -19635,10 +19638,10 @@
       <c r="CA148" s="14"/>
       <c r="CB148" s="29"/>
       <c r="CC148" s="29"/>
-      <c r="CD148" s="116">
+      <c r="CD148" s="86">
         <v>90</v>
       </c>
-      <c r="CE148" s="116">
+      <c r="CE148" s="86">
         <v>155</v>
       </c>
       <c r="CF148" s="24">
@@ -19748,10 +19751,10 @@
       <c r="CA149" s="14"/>
       <c r="CB149" s="29"/>
       <c r="CC149" s="29"/>
-      <c r="CD149" s="116">
+      <c r="CD149" s="86">
         <v>80</v>
       </c>
-      <c r="CE149" s="116">
+      <c r="CE149" s="86">
         <v>90</v>
       </c>
       <c r="CF149" s="24">
@@ -19861,10 +19864,10 @@
       <c r="CA150" s="6"/>
       <c r="CB150" s="15"/>
       <c r="CC150" s="15"/>
-      <c r="CD150" s="116">
+      <c r="CD150" s="86">
         <v>80</v>
       </c>
-      <c r="CE150" s="116">
+      <c r="CE150" s="86">
         <v>85</v>
       </c>
       <c r="CF150" s="24">
@@ -19873,12 +19876,12 @@
       </c>
     </row>
     <row r="151" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="86" t="s">
+      <c r="A151" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="B151" s="89"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="90"/>
+      <c r="B151" s="105"/>
+      <c r="C151" s="105"/>
+      <c r="D151" s="106"/>
       <c r="E151" s="70"/>
       <c r="F151" s="24"/>
       <c r="G151" s="26">
@@ -19965,8 +19968,8 @@
       <c r="CA151" s="6"/>
       <c r="CB151" s="15"/>
       <c r="CC151" s="15"/>
-      <c r="CD151" s="116"/>
-      <c r="CE151" s="116"/>
+      <c r="CD151" s="86"/>
+      <c r="CE151" s="86"/>
       <c r="CF151" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -20074,10 +20077,10 @@
       <c r="CA152" s="6"/>
       <c r="CB152" s="15"/>
       <c r="CC152" s="15"/>
-      <c r="CD152" s="116">
+      <c r="CD152" s="86">
         <v>1200</v>
       </c>
-      <c r="CE152" s="116">
+      <c r="CE152" s="86">
         <v>1200</v>
       </c>
       <c r="CF152" s="24">
@@ -20187,10 +20190,10 @@
       <c r="CA153" s="6"/>
       <c r="CB153" s="15"/>
       <c r="CC153" s="15"/>
-      <c r="CD153" s="116">
+      <c r="CD153" s="86">
         <v>1200</v>
       </c>
-      <c r="CE153" s="116">
+      <c r="CE153" s="86">
         <v>1200</v>
       </c>
       <c r="CF153" s="24">
@@ -20298,10 +20301,10 @@
       <c r="CA154" s="6"/>
       <c r="CB154" s="15"/>
       <c r="CC154" s="15"/>
-      <c r="CD154" s="116">
+      <c r="CD154" s="86">
         <v>1200</v>
       </c>
-      <c r="CE154" s="116">
+      <c r="CE154" s="86">
         <v>1200</v>
       </c>
       <c r="CF154" s="24">
@@ -20409,10 +20412,10 @@
       <c r="CA155" s="6"/>
       <c r="CB155" s="15"/>
       <c r="CC155" s="15"/>
-      <c r="CD155" s="116">
+      <c r="CD155" s="86">
         <v>1200</v>
       </c>
-      <c r="CE155" s="116">
+      <c r="CE155" s="86">
         <v>1200</v>
       </c>
       <c r="CF155" s="24">
@@ -20520,10 +20523,10 @@
       <c r="CA156" s="6"/>
       <c r="CB156" s="15"/>
       <c r="CC156" s="15"/>
-      <c r="CD156" s="116">
+      <c r="CD156" s="86">
         <v>1614.6</v>
       </c>
-      <c r="CE156" s="116">
+      <c r="CE156" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF156" s="24">
@@ -20631,10 +20634,10 @@
       <c r="CA157" s="6"/>
       <c r="CB157" s="15"/>
       <c r="CC157" s="15"/>
-      <c r="CD157" s="116">
+      <c r="CD157" s="86">
         <v>1614.6</v>
       </c>
-      <c r="CE157" s="116">
+      <c r="CE157" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF157" s="24">
@@ -20742,10 +20745,10 @@
       <c r="CA158" s="6"/>
       <c r="CB158" s="15"/>
       <c r="CC158" s="15"/>
-      <c r="CD158" s="116">
+      <c r="CD158" s="86">
         <v>1200</v>
       </c>
-      <c r="CE158" s="116">
+      <c r="CE158" s="86">
         <v>1200</v>
       </c>
       <c r="CF158" s="24">
@@ -20855,10 +20858,10 @@
       <c r="CA159" s="6"/>
       <c r="CB159" s="15"/>
       <c r="CC159" s="15"/>
-      <c r="CD159" s="116">
+      <c r="CD159" s="86">
         <v>1521</v>
       </c>
-      <c r="CE159" s="116">
+      <c r="CE159" s="86">
         <v>1521</v>
       </c>
       <c r="CF159" s="24">
@@ -20968,10 +20971,10 @@
       <c r="CA160" s="6"/>
       <c r="CB160" s="15"/>
       <c r="CC160" s="15"/>
-      <c r="CD160" s="116">
+      <c r="CD160" s="86">
         <v>1521</v>
       </c>
-      <c r="CE160" s="116">
+      <c r="CE160" s="86">
         <v>1521</v>
       </c>
       <c r="CF160" s="24">
@@ -20980,12 +20983,12 @@
       </c>
     </row>
     <row r="161" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="86" t="s">
+      <c r="A161" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="B161" s="87"/>
-      <c r="C161" s="87"/>
-      <c r="D161" s="88"/>
+      <c r="B161" s="123"/>
+      <c r="C161" s="123"/>
+      <c r="D161" s="124"/>
       <c r="E161" s="70"/>
       <c r="F161" s="24"/>
       <c r="G161" s="26">
@@ -21072,8 +21075,8 @@
       <c r="CA161" s="6"/>
       <c r="CB161" s="15"/>
       <c r="CC161" s="15"/>
-      <c r="CD161" s="116"/>
-      <c r="CE161" s="116"/>
+      <c r="CD161" s="86"/>
+      <c r="CE161" s="86"/>
       <c r="CF161" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -21183,10 +21186,10 @@
       <c r="CA162" s="6"/>
       <c r="CB162" s="6"/>
       <c r="CC162" s="6"/>
-      <c r="CD162" s="116">
+      <c r="CD162" s="86">
         <v>93</v>
       </c>
-      <c r="CE162" s="116">
+      <c r="CE162" s="86">
         <v>112</v>
       </c>
       <c r="CF162" s="24">
@@ -21195,12 +21198,12 @@
       </c>
     </row>
     <row r="163" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="86" t="s">
+      <c r="A163" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="B163" s="89"/>
-      <c r="C163" s="89"/>
-      <c r="D163" s="90"/>
+      <c r="B163" s="105"/>
+      <c r="C163" s="105"/>
+      <c r="D163" s="106"/>
       <c r="E163" s="70"/>
       <c r="F163" s="24"/>
       <c r="G163" s="26">
@@ -21287,8 +21290,8 @@
       <c r="CA163" s="6"/>
       <c r="CB163" s="6"/>
       <c r="CC163" s="6"/>
-      <c r="CD163" s="116"/>
-      <c r="CE163" s="116"/>
+      <c r="CD163" s="86"/>
+      <c r="CE163" s="86"/>
       <c r="CF163" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -21396,10 +21399,10 @@
       <c r="CA164" s="6"/>
       <c r="CB164" s="6"/>
       <c r="CC164" s="6"/>
-      <c r="CD164" s="116">
+      <c r="CD164" s="86">
         <v>1250</v>
       </c>
-      <c r="CE164" s="116">
+      <c r="CE164" s="86">
         <v>1521</v>
       </c>
       <c r="CF164" s="24">
@@ -21509,10 +21512,10 @@
       <c r="CA165" s="6"/>
       <c r="CB165" s="6"/>
       <c r="CC165" s="6"/>
-      <c r="CD165" s="116">
+      <c r="CD165" s="86">
         <v>1250</v>
       </c>
-      <c r="CE165" s="116">
+      <c r="CE165" s="86">
         <v>1521</v>
       </c>
       <c r="CF165" s="24">
@@ -21622,10 +21625,10 @@
       <c r="CA166" s="6"/>
       <c r="CB166" s="6"/>
       <c r="CC166" s="6"/>
-      <c r="CD166" s="116">
+      <c r="CD166" s="86">
         <v>2.6</v>
       </c>
-      <c r="CE166" s="116">
+      <c r="CE166" s="86">
         <v>1000</v>
       </c>
       <c r="CF166" s="24">
@@ -21753,10 +21756,10 @@
       <c r="CA167" s="6"/>
       <c r="CB167" s="6"/>
       <c r="CC167" s="6"/>
-      <c r="CD167" s="116">
+      <c r="CD167" s="86">
         <v>1200</v>
       </c>
-      <c r="CE167" s="116">
+      <c r="CE167" s="86">
         <v>1500</v>
       </c>
       <c r="CF167" s="24">
@@ -21869,10 +21872,10 @@
       <c r="CA168" s="6"/>
       <c r="CB168" s="6"/>
       <c r="CC168" s="6"/>
-      <c r="CD168" s="116">
+      <c r="CD168" s="86">
         <v>1200</v>
       </c>
-      <c r="CE168" s="116">
+      <c r="CE168" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF168" s="24">
@@ -21988,10 +21991,10 @@
       <c r="CA169" s="6"/>
       <c r="CB169" s="6"/>
       <c r="CC169" s="6"/>
-      <c r="CD169" s="116">
+      <c r="CD169" s="86">
         <v>1250</v>
       </c>
-      <c r="CE169" s="116">
+      <c r="CE169" s="86">
         <v>1500</v>
       </c>
       <c r="CF169" s="24">
@@ -22101,10 +22104,10 @@
       <c r="CA170" s="6"/>
       <c r="CB170" s="6"/>
       <c r="CC170" s="6"/>
-      <c r="CD170" s="116">
+      <c r="CD170" s="86">
         <v>1200</v>
       </c>
-      <c r="CE170" s="116">
+      <c r="CE170" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF170" s="24">
@@ -22214,10 +22217,10 @@
       <c r="CA171" s="6"/>
       <c r="CB171" s="6"/>
       <c r="CC171" s="6"/>
-      <c r="CD171" s="116">
+      <c r="CD171" s="86">
         <v>1521</v>
       </c>
-      <c r="CE171" s="116">
+      <c r="CE171" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF171" s="24">
@@ -22331,10 +22334,10 @@
         <v>4.96</v>
       </c>
       <c r="CC172" s="6"/>
-      <c r="CD172" s="116">
+      <c r="CD172" s="86">
         <v>1521</v>
       </c>
-      <c r="CE172" s="116">
+      <c r="CE172" s="86">
         <v>1521</v>
       </c>
       <c r="CF172" s="24">
@@ -22450,10 +22453,10 @@
         <v>12.16</v>
       </c>
       <c r="CC173" s="6"/>
-      <c r="CD173" s="116">
+      <c r="CD173" s="86">
         <v>1521</v>
       </c>
-      <c r="CE173" s="116">
+      <c r="CE173" s="86">
         <v>1521</v>
       </c>
       <c r="CF173" s="24">
@@ -22563,8 +22566,8 @@
       <c r="CA174" s="6"/>
       <c r="CB174" s="6"/>
       <c r="CC174" s="6"/>
-      <c r="CD174" s="116"/>
-      <c r="CE174" s="116">
+      <c r="CD174" s="86"/>
+      <c r="CE174" s="86">
         <v>1425</v>
       </c>
       <c r="CF174" s="24">
@@ -22674,10 +22677,10 @@
       <c r="CA175" s="6"/>
       <c r="CB175" s="6"/>
       <c r="CC175" s="6"/>
-      <c r="CD175" s="116">
+      <c r="CD175" s="86">
         <v>1250</v>
       </c>
-      <c r="CE175" s="116">
+      <c r="CE175" s="86">
         <v>1521</v>
       </c>
       <c r="CF175" s="24">
@@ -22787,10 +22790,10 @@
       <c r="CA176" s="6"/>
       <c r="CB176" s="6"/>
       <c r="CC176" s="6"/>
-      <c r="CD176" s="116">
+      <c r="CD176" s="86">
         <v>1200</v>
       </c>
-      <c r="CE176" s="116">
+      <c r="CE176" s="86">
         <v>1200</v>
       </c>
       <c r="CF176" s="24">
@@ -22900,10 +22903,10 @@
       <c r="CA177" s="6"/>
       <c r="CB177" s="6"/>
       <c r="CC177" s="6"/>
-      <c r="CD177" s="116">
+      <c r="CD177" s="86">
         <v>1200</v>
       </c>
-      <c r="CE177" s="116">
+      <c r="CE177" s="86">
         <v>1200</v>
       </c>
       <c r="CF177" s="24">
@@ -23013,10 +23016,10 @@
       <c r="CA178" s="6"/>
       <c r="CB178" s="6"/>
       <c r="CC178" s="6"/>
-      <c r="CD178" s="116">
+      <c r="CD178" s="86">
         <v>1150</v>
       </c>
-      <c r="CE178" s="116">
+      <c r="CE178" s="86">
         <v>1150</v>
       </c>
       <c r="CF178" s="24">
@@ -23126,10 +23129,10 @@
       <c r="CA179" s="6"/>
       <c r="CB179" s="6"/>
       <c r="CC179" s="6"/>
-      <c r="CD179" s="116">
+      <c r="CD179" s="86">
         <v>1150</v>
       </c>
-      <c r="CE179" s="116">
+      <c r="CE179" s="86">
         <v>1150</v>
       </c>
       <c r="CF179" s="24">
@@ -23235,10 +23238,10 @@
       <c r="CA180" s="6"/>
       <c r="CB180" s="6"/>
       <c r="CC180" s="6"/>
-      <c r="CD180" s="116">
+      <c r="CD180" s="86">
         <v>1200</v>
       </c>
-      <c r="CE180" s="116">
+      <c r="CE180" s="86">
         <v>1200</v>
       </c>
       <c r="CF180" s="24">
@@ -23348,8 +23351,8 @@
       <c r="CA181" s="6"/>
       <c r="CB181" s="6"/>
       <c r="CC181" s="6"/>
-      <c r="CD181" s="116"/>
-      <c r="CE181" s="116">
+      <c r="CD181" s="86"/>
+      <c r="CE181" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF181" s="24">
@@ -23459,10 +23462,10 @@
       <c r="CA182" s="6"/>
       <c r="CB182" s="6"/>
       <c r="CC182" s="6"/>
-      <c r="CD182" s="116">
+      <c r="CD182" s="86">
         <v>1250</v>
       </c>
-      <c r="CE182" s="116">
+      <c r="CE182" s="86">
         <v>1250</v>
       </c>
       <c r="CF182" s="24">
@@ -23572,10 +23575,10 @@
       <c r="CA183" s="6"/>
       <c r="CB183" s="6"/>
       <c r="CC183" s="6"/>
-      <c r="CD183" s="116">
+      <c r="CD183" s="86">
         <v>1250</v>
       </c>
-      <c r="CE183" s="116">
+      <c r="CE183" s="86">
         <v>1250</v>
       </c>
       <c r="CF183" s="24">
@@ -23685,10 +23688,10 @@
       <c r="CA184" s="6"/>
       <c r="CB184" s="6"/>
       <c r="CC184" s="6"/>
-      <c r="CD184" s="116">
+      <c r="CD184" s="86">
         <v>1250</v>
       </c>
-      <c r="CE184" s="116">
+      <c r="CE184" s="86">
         <v>1521</v>
       </c>
       <c r="CF184" s="24">
@@ -23798,10 +23801,10 @@
       <c r="CA185" s="6"/>
       <c r="CB185" s="6"/>
       <c r="CC185" s="6"/>
-      <c r="CD185" s="116">
+      <c r="CD185" s="86">
         <v>1200</v>
       </c>
-      <c r="CE185" s="116">
+      <c r="CE185" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF185" s="24">
@@ -23911,10 +23914,10 @@
       <c r="CA186" s="6"/>
       <c r="CB186" s="6"/>
       <c r="CC186" s="6"/>
-      <c r="CD186" s="116">
+      <c r="CD186" s="86">
         <v>1250</v>
       </c>
-      <c r="CE186" s="116">
+      <c r="CE186" s="86">
         <v>1521</v>
       </c>
       <c r="CF186" s="24">
@@ -24024,10 +24027,10 @@
       <c r="CA187" s="6"/>
       <c r="CB187" s="6"/>
       <c r="CC187" s="6"/>
-      <c r="CD187" s="116">
+      <c r="CD187" s="86">
         <v>1250</v>
       </c>
-      <c r="CE187" s="116">
+      <c r="CE187" s="86">
         <v>1250</v>
       </c>
       <c r="CF187" s="24">
@@ -24139,10 +24142,10 @@
       <c r="CA188" s="6"/>
       <c r="CB188" s="6"/>
       <c r="CC188" s="6"/>
-      <c r="CD188" s="116">
+      <c r="CD188" s="86">
         <v>1250</v>
       </c>
-      <c r="CE188" s="116">
+      <c r="CE188" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF188" s="24">
@@ -24252,10 +24255,10 @@
       <c r="CA189" s="6"/>
       <c r="CB189" s="6"/>
       <c r="CC189" s="6"/>
-      <c r="CD189" s="116">
+      <c r="CD189" s="86">
         <v>1250</v>
       </c>
-      <c r="CE189" s="116">
+      <c r="CE189" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF189" s="24">
@@ -24365,10 +24368,10 @@
       <c r="CA190" s="6"/>
       <c r="CB190" s="6"/>
       <c r="CC190" s="6"/>
-      <c r="CD190" s="116">
+      <c r="CD190" s="86">
         <v>1250</v>
       </c>
-      <c r="CE190" s="116">
+      <c r="CE190" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF190" s="24">
@@ -24480,10 +24483,10 @@
       <c r="CA191" s="6"/>
       <c r="CB191" s="6"/>
       <c r="CC191" s="6"/>
-      <c r="CD191" s="116">
+      <c r="CD191" s="86">
         <v>1200</v>
       </c>
-      <c r="CE191" s="116">
+      <c r="CE191" s="86">
         <v>1450</v>
       </c>
       <c r="CF191" s="24">
@@ -24599,10 +24602,10 @@
       <c r="CA192" s="6"/>
       <c r="CB192" s="6"/>
       <c r="CC192" s="6"/>
-      <c r="CD192" s="116">
+      <c r="CD192" s="86">
         <v>1200</v>
       </c>
-      <c r="CE192" s="116">
+      <c r="CE192" s="86">
         <v>1450</v>
       </c>
       <c r="CF192" s="24">
@@ -24718,10 +24721,10 @@
         <v>14.7</v>
       </c>
       <c r="CC193" s="6"/>
-      <c r="CD193" s="116">
+      <c r="CD193" s="86">
         <v>1200</v>
       </c>
-      <c r="CE193" s="116">
+      <c r="CE193" s="86">
         <v>1500</v>
       </c>
       <c r="CF193" s="24">
@@ -24831,10 +24834,10 @@
       <c r="CA194" s="6"/>
       <c r="CB194" s="6"/>
       <c r="CC194" s="6"/>
-      <c r="CD194" s="116">
+      <c r="CD194" s="86">
         <v>1150</v>
       </c>
-      <c r="CE194" s="116">
+      <c r="CE194" s="86">
         <v>1150</v>
       </c>
       <c r="CF194" s="24">
@@ -24944,10 +24947,10 @@
       <c r="CA195" s="6"/>
       <c r="CB195" s="6"/>
       <c r="CC195" s="6"/>
-      <c r="CD195" s="116">
+      <c r="CD195" s="86">
         <v>1250</v>
       </c>
-      <c r="CE195" s="116">
+      <c r="CE195" s="86">
         <v>1425</v>
       </c>
       <c r="CF195" s="24">
@@ -25073,10 +25076,10 @@
       <c r="CA196" s="6"/>
       <c r="CB196" s="6"/>
       <c r="CC196" s="6"/>
-      <c r="CD196" s="116">
+      <c r="CD196" s="86">
         <v>1250</v>
       </c>
-      <c r="CE196" s="116">
+      <c r="CE196" s="86">
         <v>1500</v>
       </c>
       <c r="CF196" s="24">
@@ -25186,10 +25189,10 @@
       <c r="CA197" s="6"/>
       <c r="CB197" s="6"/>
       <c r="CC197" s="6"/>
-      <c r="CD197" s="116">
+      <c r="CD197" s="86">
         <v>1150</v>
       </c>
-      <c r="CE197" s="116">
+      <c r="CE197" s="86">
         <v>1150</v>
       </c>
       <c r="CF197" s="24">
@@ -25301,10 +25304,10 @@
       </c>
       <c r="CB198" s="6"/>
       <c r="CC198" s="6"/>
-      <c r="CD198" s="116">
+      <c r="CD198" s="86">
         <v>1399.46</v>
       </c>
-      <c r="CE198" s="116">
+      <c r="CE198" s="86">
         <v>1399</v>
       </c>
       <c r="CF198" s="24">
@@ -25414,10 +25417,10 @@
       <c r="CA199" s="6"/>
       <c r="CB199" s="6"/>
       <c r="CC199" s="6"/>
-      <c r="CD199" s="116">
+      <c r="CD199" s="86">
         <v>1250</v>
       </c>
-      <c r="CE199" s="116">
+      <c r="CE199" s="86">
         <v>1521</v>
       </c>
       <c r="CF199" s="24">
@@ -25535,10 +25538,10 @@
       <c r="CA200" s="58"/>
       <c r="CB200" s="58"/>
       <c r="CC200" s="58"/>
-      <c r="CD200" s="121">
+      <c r="CD200" s="89">
         <v>1250</v>
       </c>
-      <c r="CE200" s="121">
+      <c r="CE200" s="89">
         <v>1614.6</v>
       </c>
       <c r="CF200" s="79">
@@ -25694,10 +25697,10 @@
         <v>11.16</v>
       </c>
       <c r="CC201" s="6"/>
-      <c r="CD201" s="116">
+      <c r="CD201" s="86">
         <v>850</v>
       </c>
-      <c r="CE201" s="116">
+      <c r="CE201" s="86">
         <v>850</v>
       </c>
       <c r="CF201" s="24">
@@ -25844,10 +25847,10 @@
       <c r="CA202" s="6"/>
       <c r="CB202" s="6"/>
       <c r="CC202" s="6"/>
-      <c r="CD202" s="116">
+      <c r="CD202" s="86">
         <v>850</v>
       </c>
-      <c r="CE202" s="116">
+      <c r="CE202" s="86">
         <v>850</v>
       </c>
       <c r="CF202" s="24">
@@ -25957,10 +25960,10 @@
       <c r="CA203" s="6"/>
       <c r="CB203" s="6"/>
       <c r="CC203" s="6"/>
-      <c r="CD203" s="116">
-        <v>0</v>
-      </c>
-      <c r="CE203" s="116"/>
+      <c r="CD203" s="86">
+        <v>0</v>
+      </c>
+      <c r="CE203" s="86"/>
       <c r="CF203" s="24">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -26068,10 +26071,10 @@
       <c r="CA204" s="6"/>
       <c r="CB204" s="6"/>
       <c r="CC204" s="6"/>
-      <c r="CD204" s="116">
+      <c r="CD204" s="86">
         <v>731</v>
       </c>
-      <c r="CE204" s="116">
+      <c r="CE204" s="86">
         <v>731</v>
       </c>
       <c r="CF204" s="24">
@@ -26181,10 +26184,10 @@
       <c r="CA205" s="6"/>
       <c r="CB205" s="6"/>
       <c r="CC205" s="6"/>
-      <c r="CD205" s="116">
+      <c r="CD205" s="86">
         <v>1150</v>
       </c>
-      <c r="CE205" s="116">
+      <c r="CE205" s="86">
         <v>1150</v>
       </c>
       <c r="CF205" s="24">
@@ -26296,10 +26299,10 @@
       <c r="CA206" s="6"/>
       <c r="CB206" s="6"/>
       <c r="CC206" s="6"/>
-      <c r="CD206" s="116">
+      <c r="CD206" s="86">
         <v>1250</v>
       </c>
-      <c r="CE206" s="116">
+      <c r="CE206" s="86">
         <v>1521</v>
       </c>
       <c r="CF206" s="24">
@@ -26411,10 +26414,10 @@
       <c r="CA207" s="6"/>
       <c r="CB207" s="6"/>
       <c r="CC207" s="6"/>
-      <c r="CD207" s="116">
+      <c r="CD207" s="86">
         <v>1250</v>
       </c>
-      <c r="CE207" s="116">
+      <c r="CE207" s="86">
         <v>1521</v>
       </c>
       <c r="CF207" s="24">
@@ -26526,10 +26529,10 @@
       <c r="CA208" s="6"/>
       <c r="CB208" s="6"/>
       <c r="CC208" s="6"/>
-      <c r="CD208" s="116">
+      <c r="CD208" s="86">
         <v>1250</v>
       </c>
-      <c r="CE208" s="116">
+      <c r="CE208" s="86">
         <v>1250</v>
       </c>
       <c r="CF208" s="24">
@@ -26641,10 +26644,10 @@
       <c r="CA209" s="14"/>
       <c r="CB209" s="14"/>
       <c r="CC209" s="14"/>
-      <c r="CD209" s="116">
+      <c r="CD209" s="86">
         <v>1250</v>
       </c>
-      <c r="CE209" s="116">
+      <c r="CE209" s="86">
         <v>1250</v>
       </c>
       <c r="CF209" s="24">
@@ -26752,8 +26755,8 @@
       <c r="CA210" s="14"/>
       <c r="CB210" s="14"/>
       <c r="CC210" s="14"/>
-      <c r="CD210" s="116"/>
-      <c r="CE210" s="116">
+      <c r="CD210" s="86"/>
+      <c r="CE210" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF210" s="24">
@@ -26859,8 +26862,8 @@
       <c r="CA211" s="14"/>
       <c r="CB211" s="14"/>
       <c r="CC211" s="14"/>
-      <c r="CD211" s="116"/>
-      <c r="CE211" s="116">
+      <c r="CD211" s="86"/>
+      <c r="CE211" s="86">
         <v>1450</v>
       </c>
       <c r="CF211" s="24">
@@ -26974,10 +26977,10 @@
       <c r="CA212" s="6"/>
       <c r="CB212" s="16"/>
       <c r="CC212" s="16"/>
-      <c r="CD212" s="116">
+      <c r="CD212" s="86">
         <v>1150</v>
       </c>
-      <c r="CE212" s="116">
+      <c r="CE212" s="86">
         <v>1150</v>
       </c>
       <c r="CF212" s="24">
@@ -27089,10 +27092,10 @@
       <c r="CA213" s="6"/>
       <c r="CB213" s="6"/>
       <c r="CC213" s="6"/>
-      <c r="CD213" s="116">
+      <c r="CD213" s="86">
         <v>1250</v>
       </c>
-      <c r="CE213" s="116">
+      <c r="CE213" s="86">
         <v>1521</v>
       </c>
       <c r="CF213" s="24">
@@ -27204,10 +27207,10 @@
       <c r="CA214" s="6"/>
       <c r="CB214" s="6"/>
       <c r="CC214" s="6"/>
-      <c r="CD214" s="116">
+      <c r="CD214" s="86">
         <v>1250</v>
       </c>
-      <c r="CE214" s="116">
+      <c r="CE214" s="86">
         <v>1521</v>
       </c>
       <c r="CF214" s="24">
@@ -27321,10 +27324,10 @@
       <c r="CA215" s="6"/>
       <c r="CB215" s="6"/>
       <c r="CC215" s="6"/>
-      <c r="CD215" s="116">
+      <c r="CD215" s="86">
         <v>1521</v>
       </c>
-      <c r="CE215" s="116">
+      <c r="CE215" s="86">
         <v>1521</v>
       </c>
       <c r="CF215" s="24">
@@ -27432,10 +27435,10 @@
       <c r="CA216" s="6"/>
       <c r="CB216" s="6"/>
       <c r="CC216" s="6"/>
-      <c r="CD216" s="116">
+      <c r="CD216" s="86">
         <v>1614.6</v>
       </c>
-      <c r="CE216" s="116">
+      <c r="CE216" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF216" s="24">
@@ -27555,10 +27558,10 @@
       <c r="CA217" s="6"/>
       <c r="CB217" s="6"/>
       <c r="CC217" s="6"/>
-      <c r="CD217" s="116">
+      <c r="CD217" s="86">
         <v>1200</v>
       </c>
-      <c r="CE217" s="116">
+      <c r="CE217" s="86">
         <v>1614.6</v>
       </c>
       <c r="CF217" s="24">
@@ -27567,12 +27570,12 @@
       </c>
     </row>
     <row r="218" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="86" t="s">
+      <c r="A218" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="B218" s="87"/>
-      <c r="C218" s="87"/>
-      <c r="D218" s="88"/>
+      <c r="B218" s="123"/>
+      <c r="C218" s="123"/>
+      <c r="D218" s="124"/>
       <c r="E218" s="70"/>
       <c r="F218" s="24"/>
       <c r="G218" s="26">
@@ -27659,8 +27662,8 @@
       <c r="CA218" s="6"/>
       <c r="CB218" s="6"/>
       <c r="CC218" s="6"/>
-      <c r="CD218" s="116"/>
-      <c r="CE218" s="116"/>
+      <c r="CD218" s="86"/>
+      <c r="CE218" s="86"/>
       <c r="CF218" s="24">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -27775,7 +27778,7 @@
         <v>25.05</v>
       </c>
       <c r="CC219" s="6"/>
-      <c r="CD219" s="116">
+      <c r="CD219" s="86">
         <v>1071.6733716475096</v>
       </c>
       <c r="CE219" s="24">
@@ -27901,7 +27904,7 @@
       <c r="CA220" s="6"/>
       <c r="CB220" s="6"/>
       <c r="CC220" s="6"/>
-      <c r="CD220" s="116">
+      <c r="CD220" s="86">
         <v>1042.5068853204762</v>
       </c>
       <c r="CE220" s="24">
@@ -28034,7 +28037,7 @@
       <c r="CA221" s="6"/>
       <c r="CB221" s="6"/>
       <c r="CC221" s="6"/>
-      <c r="CD221" s="116">
+      <c r="CD221" s="86">
         <v>1040.4118462581109</v>
       </c>
       <c r="CE221" s="24">
@@ -28046,12 +28049,12 @@
       </c>
     </row>
     <row r="222" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="86" t="s">
+      <c r="A222" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="B222" s="89"/>
-      <c r="C222" s="89"/>
-      <c r="D222" s="90"/>
+      <c r="B222" s="105"/>
+      <c r="C222" s="105"/>
+      <c r="D222" s="106"/>
       <c r="E222" s="70"/>
       <c r="F222" s="24"/>
       <c r="G222" s="26">
@@ -28138,8 +28141,8 @@
       <c r="CA222" s="6"/>
       <c r="CB222" s="6"/>
       <c r="CC222" s="6"/>
-      <c r="CD222" s="116"/>
-      <c r="CE222" s="116"/>
+      <c r="CD222" s="86"/>
+      <c r="CE222" s="86"/>
       <c r="CF222" s="24">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -28249,10 +28252,10 @@
       <c r="CA223" s="32"/>
       <c r="CB223" s="32"/>
       <c r="CC223" s="32"/>
-      <c r="CD223" s="116">
+      <c r="CD223" s="86">
         <v>1020</v>
       </c>
-      <c r="CE223" s="116">
+      <c r="CE223" s="86">
         <v>1193.4000000000001</v>
       </c>
       <c r="CF223" s="24">
@@ -28364,10 +28367,10 @@
       <c r="CA224" s="14"/>
       <c r="CB224" s="14"/>
       <c r="CC224" s="14"/>
-      <c r="CD224" s="116">
-        <v>0</v>
-      </c>
-      <c r="CE224" s="116"/>
+      <c r="CD224" s="86">
+        <v>0</v>
+      </c>
+      <c r="CE224" s="86"/>
       <c r="CF224" s="24">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -28497,10 +28500,10 @@
       <c r="CA225" s="14"/>
       <c r="CB225" s="14"/>
       <c r="CC225" s="14"/>
-      <c r="CD225" s="116">
+      <c r="CD225" s="86">
         <v>340</v>
       </c>
-      <c r="CE225" s="116">
+      <c r="CE225" s="86">
         <v>400</v>
       </c>
       <c r="CF225" s="24">
@@ -28612,10 +28615,10 @@
       <c r="CA226" s="14"/>
       <c r="CB226" s="14"/>
       <c r="CC226" s="14"/>
-      <c r="CD226" s="116">
+      <c r="CD226" s="86">
         <v>350</v>
       </c>
-      <c r="CE226" s="116">
+      <c r="CE226" s="86">
         <v>350</v>
       </c>
       <c r="CF226" s="24">
@@ -28740,10 +28743,10 @@
       <c r="CA227" s="14"/>
       <c r="CB227" s="14"/>
       <c r="CC227" s="14"/>
-      <c r="CD227" s="116">
+      <c r="CD227" s="86">
         <v>350</v>
       </c>
-      <c r="CE227" s="116">
+      <c r="CE227" s="86">
         <v>500</v>
       </c>
       <c r="CF227" s="24">
@@ -28752,12 +28755,12 @@
       </c>
     </row>
     <row r="228" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="105" t="s">
+      <c r="A228" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="106"/>
-      <c r="C228" s="106"/>
-      <c r="D228" s="107"/>
+      <c r="B228" s="114"/>
+      <c r="C228" s="114"/>
+      <c r="D228" s="115"/>
       <c r="E228" s="5">
         <f>SUM(E7:E227)</f>
         <v>2355730.7299999991</v>
@@ -29066,8 +29069,8 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="CD228" s="122"/>
-      <c r="CE228" s="116"/>
+      <c r="CD228" s="90"/>
+      <c r="CE228" s="86"/>
       <c r="CF228" s="24">
         <f>SUM(CF7:CF227)</f>
         <v>12596728.762123972</v>
@@ -29102,8 +29105,63 @@
     <row r="238" spans="1:84" x14ac:dyDescent="0.25">
       <c r="E238" s="2"/>
     </row>
+    <row r="248" spans="74:74" x14ac:dyDescent="0.25">
+      <c r="BV248" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BL3:BL4"/>
+    <mergeCell ref="BM3:BM4"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="CD3:CD4"/>
     <mergeCell ref="CE3:CE4"/>
     <mergeCell ref="CF3:CF4"/>
@@ -29120,56 +29178,6 @@
     <mergeCell ref="BE3:BE4"/>
     <mergeCell ref="BH3:BH4"/>
     <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="BL3:BL4"/>
-    <mergeCell ref="BM3:BM4"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A163:D163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
